--- a/data/ch07/sales_data/상반기_판매량_이재정_합계.xlsx
+++ b/data/ch07/sales_data/상반기_판매량_이재정_합계.xlsx
@@ -14,60 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>작성일자</t>
-  </si>
-  <si>
-    <t>발행번호</t>
-  </si>
-  <si>
-    <t>거래처</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>제품명</t>
   </si>
   <si>
-    <t>규격</t>
-  </si>
-  <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>단가</t>
-  </si>
-  <si>
-    <t>금액</t>
-  </si>
-  <si>
-    <t>2020-09-04</t>
-  </si>
-  <si>
-    <t>가나다 컴퓨터</t>
-  </si>
-  <si>
-    <t>컴퓨터본체</t>
-  </si>
-  <si>
-    <t>모니터</t>
-  </si>
-  <si>
-    <t>키보드</t>
-  </si>
-  <si>
-    <t>마우스</t>
-  </si>
-  <si>
-    <t>CQA120</t>
-  </si>
-  <si>
-    <t>MX54B</t>
-  </si>
-  <si>
-    <t>KYD83A</t>
-  </si>
-  <si>
-    <t>ZP1054</t>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>지역</t>
+  </si>
+  <si>
+    <t>1월</t>
+  </si>
+  <si>
+    <t>2월</t>
+  </si>
+  <si>
+    <t>3월</t>
+  </si>
+  <si>
+    <t>4월</t>
+  </si>
+  <si>
+    <t>5월</t>
+  </si>
+  <si>
+    <t>6월</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>스마트폰</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>냉장고</t>
+  </si>
+  <si>
+    <t>이재정</t>
+  </si>
+  <si>
+    <t>가</t>
   </si>
 </sst>
 </file>
@@ -425,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,109 +447,107 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1258130</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="D2">
+        <v>118</v>
+      </c>
+      <c r="E2">
+        <v>101</v>
+      </c>
       <c r="F2">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="G2">
-        <v>700000</v>
+        <v>116</v>
       </c>
       <c r="H2">
-        <v>700000</v>
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>105</v>
+      </c>
+      <c r="J2">
+        <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1258130</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G3">
-        <v>300000</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>900000</v>
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1258130</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>22000</v>
+        <v>45</v>
       </c>
       <c r="H4">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1258130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>15000</v>
-      </c>
-      <c r="H5">
-        <v>150000</v>
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
